--- a/data/excel_files/FormattedNov2022.xlsx
+++ b/data/excel_files/FormattedNov2022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -31,10 +31,16 @@
     <t>Holiday</t>
   </si>
   <si>
-    <t>MenuItem</t>
+    <t>CouponsMand</t>
+  </si>
+  <si>
+    <t>Exam</t>
   </si>
   <si>
     <t>BreakFast</t>
+  </si>
+  <si>
+    <t>Acad</t>
   </si>
   <si>
     <t>Lunch</t>
@@ -53,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -61,22 +67,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF999999"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -109,15 +110,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,2651 +353,3260 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>44866.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:C121" si="1">ROUND(F2/E2,0)</f>
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="D2" s="4">
         <v>32.0</v>
       </c>
-      <c r="E2" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1600.0</v>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44866</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" si="1"/>
-        <v>178</v>
+        <v>178.0</v>
       </c>
       <c r="D3" s="1">
         <v>78.0</v>
       </c>
-      <c r="E3" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>10700.0</v>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44866</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D4" s="1">
         <v>51.0</v>
       </c>
-      <c r="E4" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>275.0</v>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44866</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="D5" s="1">
         <v>122.0</v>
       </c>
-      <c r="E5" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3140.0</v>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="D6" s="1">
         <v>101.0</v>
       </c>
-      <c r="E6" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2615.0</v>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="D7" s="1">
         <v>125.0</v>
       </c>
-      <c r="E7" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7720.0</v>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D8" s="1">
         <v>84.0</v>
       </c>
-      <c r="E8" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>300.0</v>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="D9" s="1">
         <v>201.0</v>
       </c>
-      <c r="E9" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>6930.0</v>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="D10" s="1">
         <v>120.0</v>
       </c>
-      <c r="E10" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1240.0</v>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="D11" s="1">
         <v>216.0</v>
       </c>
-      <c r="E11" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>6880.0</v>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D12" s="1">
         <v>111.0</v>
       </c>
-      <c r="E12" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>245.0</v>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="D13" s="1">
         <v>203.0</v>
       </c>
-      <c r="E13" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2100.0</v>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="D14" s="1">
         <v>179.0</v>
       </c>
-      <c r="E14" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>800.0</v>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="D15" s="1">
         <v>178.0</v>
       </c>
-      <c r="E15" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>3800.0</v>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D16" s="1">
         <v>117.0</v>
       </c>
-      <c r="E16" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>100.0</v>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="D17" s="1">
         <v>228.0</v>
       </c>
-      <c r="E17" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3290.0</v>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
-        <f t="shared" ref="A18:A21" si="2">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A18" s="5">
+        <f t="shared" ref="A18:A21" si="1">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44870</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D18" s="1">
         <v>93.0</v>
       </c>
-      <c r="E18" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>400.0</v>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
-        <f t="shared" si="2"/>
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
         <v>44870</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="D19" s="1">
         <v>252.0</v>
       </c>
-      <c r="E19" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>5030.0</v>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
-        <f t="shared" si="2"/>
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
         <v>44870</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7">
-        <f t="shared" si="2"/>
         <v>44870</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="E21" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1100.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
-        <f t="shared" ref="A22:A25" si="3">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A22" s="5">
+        <f t="shared" ref="A22:A25" si="2">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44871</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D22" s="1">
         <v>129.0</v>
       </c>
-      <c r="E22" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>480.0</v>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7">
-        <f t="shared" si="3"/>
+      <c r="A23" s="5">
+        <f t="shared" si="2"/>
         <v>44871</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="D23" s="1">
         <v>157.0</v>
       </c>
-      <c r="E23" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1830.0</v>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7">
-        <f t="shared" si="3"/>
+      <c r="A24" s="5">
+        <f t="shared" si="2"/>
         <v>44871</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E24" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>125.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
-        <f t="shared" si="3"/>
+      <c r="A25" s="5">
+        <f t="shared" si="2"/>
         <v>44871</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="D25" s="1">
         <v>261.0</v>
       </c>
-      <c r="E25" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>3150.0</v>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7">
-        <f t="shared" ref="A26:A29" si="4">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A26" s="5">
+        <f t="shared" ref="A26:A29" si="3">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44872</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D26" s="1">
         <v>175.0</v>
       </c>
-      <c r="E26" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>240.0</v>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <f t="shared" si="4"/>
+      <c r="A27" s="5">
+        <f t="shared" si="3"/>
         <v>44872</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="D27" s="1">
         <v>278.0</v>
       </c>
-      <c r="E27" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>4330.0</v>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <f t="shared" si="4"/>
+      <c r="A28" s="5">
+        <f t="shared" si="3"/>
         <v>44872</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D28" s="1">
         <v>189.0</v>
       </c>
-      <c r="E28" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>150.0</v>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <f t="shared" si="4"/>
+      <c r="A29" s="5">
+        <f t="shared" si="3"/>
         <v>44872</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="D29" s="1">
         <v>247.0</v>
       </c>
-      <c r="E29" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1400.0</v>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <f t="shared" ref="A30:A33" si="5">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A30" s="5">
+        <f t="shared" ref="A30:A33" si="4">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44873</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D30" s="1">
         <v>132.0</v>
       </c>
-      <c r="E30" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>440.0</v>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <f t="shared" si="5"/>
+      <c r="A31" s="5">
+        <f t="shared" si="4"/>
         <v>44873</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="D31" s="1">
         <v>262.0</v>
       </c>
-      <c r="E31" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2010.0</v>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
-        <f t="shared" si="5"/>
+      <c r="A32" s="5">
+        <f t="shared" si="4"/>
         <v>44873</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D32" s="1">
         <v>127.0</v>
       </c>
-      <c r="E32" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>95.0</v>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
-        <f t="shared" si="5"/>
+      <c r="A33" s="5">
+        <f t="shared" si="4"/>
         <v>44873</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D33" s="1">
         <v>204.0</v>
       </c>
-      <c r="E33" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1000.0</v>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7">
-        <f t="shared" ref="A34:A37" si="6">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A34" s="5">
+        <f t="shared" ref="A34:A37" si="5">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44874</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="D34" s="1">
         <v>236.0</v>
       </c>
-      <c r="E34" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1220.0</v>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
-        <f t="shared" si="6"/>
+      <c r="A35" s="5">
+        <f t="shared" si="5"/>
         <v>44874</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="D35" s="1">
         <v>287.0</v>
       </c>
-      <c r="E35" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>2670.0</v>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7">
-        <f t="shared" si="6"/>
+      <c r="A36" s="5">
+        <f t="shared" si="5"/>
         <v>44874</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E36" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>125.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7">
-        <f t="shared" si="6"/>
+      <c r="A37" s="5">
+        <f t="shared" si="5"/>
         <v>44874</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="D37" s="1">
         <v>421.0</v>
       </c>
-      <c r="E37" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>3430.0</v>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
-        <f t="shared" ref="A38:A41" si="7">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A38" s="5">
+        <f t="shared" ref="A38:A41" si="6">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44875</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D38" s="1">
         <v>220.0</v>
       </c>
-      <c r="E38" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>560.0</v>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7">
-        <f t="shared" si="7"/>
+      <c r="A39" s="5">
+        <f t="shared" si="6"/>
         <v>44875</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="D39" s="1">
         <v>365.0</v>
       </c>
-      <c r="E39" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>4970.0</v>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7">
-        <f t="shared" si="7"/>
+      <c r="A40" s="5">
+        <f t="shared" si="6"/>
         <v>44875</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D40" s="1">
         <v>220.0</v>
       </c>
-      <c r="E40" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>145.0</v>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7">
-        <f t="shared" si="7"/>
+      <c r="A41" s="5">
+        <f t="shared" si="6"/>
         <v>44875</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D41" s="1">
         <v>278.0</v>
       </c>
-      <c r="E41" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>850.0</v>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7">
-        <f t="shared" ref="A42:A45" si="8">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A42" s="5">
+        <f t="shared" ref="A42:A45" si="7">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44876</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="D42" s="1">
         <v>250.0</v>
       </c>
-      <c r="E42" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>840.0</v>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7">
-        <f t="shared" si="8"/>
+      <c r="A43" s="5">
+        <f t="shared" si="7"/>
         <v>44876</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="D43" s="1">
         <v>220.0</v>
       </c>
-      <c r="E43" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>2700.0</v>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
-        <f t="shared" si="8"/>
+      <c r="A44" s="5">
+        <f t="shared" si="7"/>
         <v>44876</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D44" s="1">
         <v>131.0</v>
       </c>
-      <c r="E44" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>75.0</v>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7">
-        <f t="shared" si="8"/>
+      <c r="A45" s="5">
+        <f t="shared" si="7"/>
         <v>44876</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="D45" s="1">
         <v>340.0</v>
       </c>
-      <c r="E45" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>2160.0</v>
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7">
-        <f t="shared" ref="A46:A49" si="9">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A46" s="5">
+        <f t="shared" ref="A46:A49" si="8">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44877</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D46" s="1">
         <v>201.0</v>
       </c>
-      <c r="E46" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>680.0</v>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7">
-        <f t="shared" si="9"/>
+      <c r="A47" s="5">
+        <f t="shared" si="8"/>
         <v>44877</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="D47" s="1">
         <v>387.0</v>
       </c>
-      <c r="E47" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>4560.0</v>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7">
-        <f t="shared" si="9"/>
+      <c r="A48" s="5">
+        <f t="shared" si="8"/>
         <v>44877</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D48" s="1">
         <v>162.0</v>
       </c>
-      <c r="E48" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>150.0</v>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7">
-        <f t="shared" si="9"/>
+      <c r="A49" s="5">
+        <f t="shared" si="8"/>
         <v>44877</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D49" s="1">
         <v>202.0</v>
       </c>
-      <c r="E49" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>600.0</v>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7">
-        <f t="shared" ref="A50:A53" si="10">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A50" s="5">
+        <f t="shared" ref="A50:A53" si="9">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44878</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D50" s="1">
         <v>150.0</v>
       </c>
-      <c r="E50" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>440.0</v>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7">
-        <f t="shared" si="10"/>
+      <c r="A51" s="5">
+        <f t="shared" si="9"/>
         <v>44878</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="D51" s="1">
         <v>190.0</v>
       </c>
-      <c r="E51" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>1410.0</v>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7">
-        <f t="shared" si="10"/>
+      <c r="A52" s="5">
+        <f t="shared" si="9"/>
         <v>44878</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D52" s="1">
         <v>136.0</v>
       </c>
-      <c r="E52" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>75.0</v>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7">
-        <f t="shared" si="10"/>
+      <c r="A53" s="5">
+        <f t="shared" si="9"/>
         <v>44878</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="D53" s="1">
         <v>303.0</v>
       </c>
-      <c r="E53" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>1810.0</v>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7">
-        <f t="shared" ref="A54:A57" si="11">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A54" s="5">
+        <f t="shared" ref="A54:A57" si="10">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44879</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D54" s="1">
         <v>192.0</v>
       </c>
-      <c r="E54" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>320.0</v>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7">
-        <f t="shared" si="11"/>
+      <c r="A55" s="5">
+        <f t="shared" si="10"/>
         <v>44879</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="D55" s="1">
         <v>322.0</v>
       </c>
-      <c r="E55" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>4120.0</v>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7">
-        <f t="shared" si="11"/>
+      <c r="A56" s="5">
+        <f t="shared" si="10"/>
         <v>44879</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E56" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>25.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7">
-        <f t="shared" si="11"/>
+      <c r="A57" s="5">
+        <f t="shared" si="10"/>
         <v>44879</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="D57" s="1">
         <v>354.0</v>
       </c>
-      <c r="E57" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>1100.0</v>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7">
-        <f t="shared" ref="A58:A61" si="12">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A58" s="5">
+        <f t="shared" ref="A58:A61" si="11">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44880</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D58" s="1">
         <v>193.0</v>
       </c>
-      <c r="E58" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>360.0</v>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7">
-        <f t="shared" si="12"/>
+      <c r="A59" s="5">
+        <f t="shared" si="11"/>
         <v>44880</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="D59" s="1">
         <v>360.0</v>
       </c>
-      <c r="E59" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>4460.0</v>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7">
-        <f t="shared" si="12"/>
+      <c r="A60" s="5">
+        <f t="shared" si="11"/>
         <v>44880</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D60" s="1">
         <v>209.0</v>
       </c>
-      <c r="E60" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>125.0</v>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7">
-        <f t="shared" si="12"/>
+      <c r="A61" s="5">
+        <f t="shared" si="11"/>
         <v>44880</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D61" s="1">
         <v>316.0</v>
       </c>
-      <c r="E61" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>1000.0</v>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7">
-        <f t="shared" ref="A62:A65" si="13">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A62" s="5">
+        <f t="shared" ref="A62:A65" si="12">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44881</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="D62" s="1">
         <v>242.0</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <f t="shared" si="12"/>
+        <v>44881</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4">
         <v>40.0</v>
-      </c>
-      <c r="F62" s="8">
-        <v>720.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7">
-        <f t="shared" si="13"/>
-        <v>44881</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
       <c r="D63" s="1">
         <v>265.0</v>
       </c>
-      <c r="E63" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>2410.0</v>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7">
-        <f t="shared" si="13"/>
+      <c r="A64" s="5">
+        <f t="shared" si="12"/>
         <v>44881</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E64" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>100.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7">
-        <f t="shared" si="13"/>
+      <c r="A65" s="5">
+        <f t="shared" si="12"/>
         <v>44881</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="D65" s="1">
         <v>445.0</v>
       </c>
-      <c r="E65" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>3550.0</v>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7">
-        <f t="shared" ref="A66:A69" si="14">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A66" s="5">
+        <f t="shared" ref="A66:A69" si="13">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44882</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D66" s="1">
         <v>217.0</v>
       </c>
-      <c r="E66" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F66" s="8">
-        <v>520.0</v>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7">
-        <f t="shared" si="14"/>
+      <c r="A67" s="5">
+        <f t="shared" si="13"/>
         <v>44882</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="D67" s="1">
         <v>356.0</v>
       </c>
-      <c r="E67" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>2730.0</v>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7">
-        <f t="shared" si="14"/>
+      <c r="A68" s="5">
+        <f t="shared" si="13"/>
         <v>44882</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D68" s="1">
         <v>178.0</v>
       </c>
-      <c r="E68" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F68" s="8">
-        <v>150.0</v>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7">
-        <f t="shared" si="14"/>
+      <c r="A69" s="5">
+        <f t="shared" si="13"/>
         <v>44882</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D69" s="1">
         <v>292.0</v>
       </c>
-      <c r="E69" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F69" s="8">
-        <v>700.0</v>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7">
-        <f t="shared" ref="A70:A73" si="15">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A70" s="5">
+        <f t="shared" ref="A70:A73" si="14">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44883</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="D70" s="1">
         <v>232.0</v>
       </c>
-      <c r="E70" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F70" s="8">
-        <v>640.0</v>
+      <c r="E70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7">
-        <f t="shared" si="15"/>
+      <c r="A71" s="5">
+        <f t="shared" si="14"/>
         <v>44883</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="D71" s="1">
         <v>202.0</v>
       </c>
-      <c r="E71" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F71" s="8">
-        <v>2320.0</v>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7">
-        <f t="shared" si="15"/>
+      <c r="A72" s="5">
+        <f t="shared" si="14"/>
         <v>44883</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D72" s="1">
         <v>106.0</v>
       </c>
-      <c r="E72" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F72" s="8">
-        <v>75.0</v>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7">
-        <f t="shared" si="15"/>
+      <c r="A73" s="5">
+        <f t="shared" si="14"/>
         <v>44883</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="D73" s="1">
         <v>207.0</v>
       </c>
-      <c r="E73" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F73" s="8">
-        <v>1380.0</v>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7">
-        <f t="shared" ref="A74:A77" si="16">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A74" s="5">
+        <f t="shared" ref="A74:A77" si="15">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44884</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D74" s="1">
         <v>137.0</v>
       </c>
-      <c r="E74" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F74" s="8">
-        <v>560.0</v>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7">
-        <f t="shared" si="16"/>
+      <c r="A75" s="5">
+        <f t="shared" si="15"/>
         <v>44884</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="D75" s="1">
         <v>306.0</v>
       </c>
-      <c r="E75" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F75" s="8">
-        <v>4100.0</v>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7">
-        <f t="shared" si="16"/>
+      <c r="A76" s="5">
+        <f t="shared" si="15"/>
         <v>44884</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D76" s="1">
         <v>102.0</v>
       </c>
-      <c r="E76" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F76" s="8">
-        <v>25.0</v>
+      <c r="E76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7">
-        <f t="shared" si="16"/>
+      <c r="A77" s="5">
+        <f t="shared" si="15"/>
         <v>44884</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="D77" s="1">
         <v>190.0</v>
       </c>
-      <c r="E77" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F77" s="8">
-        <v>940.0</v>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7">
-        <f t="shared" ref="A78:A81" si="17">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A78" s="5">
+        <f t="shared" ref="A78:A81" si="16">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44885</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D78" s="1">
         <v>126.0</v>
       </c>
-      <c r="E78" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F78" s="8">
-        <v>455.0</v>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7">
-        <f t="shared" si="17"/>
+      <c r="A79" s="5">
+        <f t="shared" si="16"/>
         <v>44885</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="D79" s="1">
         <v>160.0</v>
       </c>
-      <c r="E79" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F79" s="8">
-        <v>1310.0</v>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7">
-        <f t="shared" si="17"/>
+      <c r="A80" s="5">
+        <f t="shared" si="16"/>
         <v>44885</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D80" s="1">
         <v>125.0</v>
       </c>
-      <c r="E80" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F80" s="8">
-        <v>95.0</v>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7">
-        <f t="shared" si="17"/>
+      <c r="A81" s="5">
+        <f t="shared" si="16"/>
         <v>44885</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="D81" s="1">
         <v>275.0</v>
       </c>
-      <c r="E81" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F81" s="8">
-        <v>2840.0</v>
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7">
-        <f t="shared" ref="A82:A85" si="18">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A82" s="5">
+        <f t="shared" ref="A82:A85" si="17">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44886</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D82" s="1">
         <v>179.0</v>
       </c>
-      <c r="E82" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F82" s="8">
-        <v>360.0</v>
+      <c r="E82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7">
-        <f t="shared" si="18"/>
+      <c r="A83" s="5">
+        <f t="shared" si="17"/>
         <v>44886</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="D83" s="1">
         <v>275.0</v>
       </c>
-      <c r="E83" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F83" s="8">
-        <v>3400.0</v>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7">
-        <f t="shared" si="18"/>
+      <c r="A84" s="5">
+        <f t="shared" si="17"/>
         <v>44886</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D84" s="1">
         <v>221.0</v>
       </c>
-      <c r="E84" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F84" s="8">
-        <v>150.0</v>
+      <c r="E84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7">
-        <f t="shared" si="18"/>
+      <c r="A85" s="5">
+        <f t="shared" si="17"/>
         <v>44886</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="D85" s="1">
         <v>303.0</v>
       </c>
-      <c r="E85" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F85" s="8">
-        <v>2150.0</v>
+      <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7">
-        <f t="shared" ref="A86:A89" si="19">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A86" s="5">
+        <f t="shared" ref="A86:A89" si="18">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44887</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D86" s="1">
         <v>189.0</v>
       </c>
-      <c r="E86" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F86" s="8">
-        <v>680.0</v>
+      <c r="E86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7">
-        <f t="shared" si="19"/>
+      <c r="A87" s="5">
+        <f t="shared" si="18"/>
         <v>44887</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="D87" s="1">
         <v>296.0</v>
       </c>
-      <c r="E87" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F87" s="8">
-        <v>4550.0</v>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7">
-        <f t="shared" si="19"/>
+      <c r="A88" s="5">
+        <f t="shared" si="18"/>
         <v>44887</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D88" s="1">
         <v>179.0</v>
       </c>
-      <c r="E88" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F88" s="8">
-        <v>125.0</v>
+      <c r="E88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7">
-        <f t="shared" si="19"/>
+      <c r="A89" s="5">
+        <f t="shared" si="18"/>
         <v>44887</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D89" s="1">
         <v>208.0</v>
       </c>
-      <c r="E89" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F89" s="8">
-        <v>800.0</v>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7">
-        <f t="shared" ref="A90:A93" si="20">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A90" s="5">
+        <f t="shared" ref="A90:A93" si="19">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44888</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D90" s="1">
         <v>224.0</v>
       </c>
-      <c r="E90" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F90" s="8">
-        <v>560.0</v>
+      <c r="E90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7">
-        <f t="shared" si="20"/>
+      <c r="A91" s="5">
+        <f t="shared" si="19"/>
         <v>44888</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="D91" s="1">
         <v>262.0</v>
       </c>
-      <c r="E91" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F91" s="8">
-        <v>2990.0</v>
+      <c r="E91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7">
-        <f t="shared" si="20"/>
+      <c r="A92" s="5">
+        <f t="shared" si="19"/>
         <v>44888</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D92" s="1">
         <v>204.0</v>
       </c>
-      <c r="E92" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F92" s="8">
-        <v>75.0</v>
+      <c r="E92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7">
-        <f t="shared" si="20"/>
+      <c r="A93" s="5">
+        <f t="shared" si="19"/>
         <v>44888</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="D93" s="1">
         <v>396.0</v>
       </c>
-      <c r="E93" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F93" s="8">
-        <v>4500.0</v>
+      <c r="E93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7">
-        <f t="shared" ref="A94:A97" si="21">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A94" s="5">
+        <f t="shared" ref="A94:A97" si="20">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44889</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="D94" s="1">
         <v>189.0</v>
       </c>
-      <c r="E94" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F94" s="8">
-        <v>840.0</v>
+      <c r="E94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7">
-        <f t="shared" si="21"/>
+      <c r="A95" s="5">
+        <f t="shared" si="20"/>
         <v>44889</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="D95" s="1">
         <v>298.0</v>
       </c>
-      <c r="E95" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F95" s="8">
-        <v>4100.0</v>
+      <c r="E95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7">
-        <f t="shared" si="21"/>
+      <c r="A96" s="5">
+        <f t="shared" si="20"/>
         <v>44889</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D96" s="1">
         <v>161.0</v>
       </c>
-      <c r="E96" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F96" s="8">
-        <v>75.0</v>
+      <c r="E96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7">
-        <f t="shared" si="21"/>
+      <c r="A97" s="5">
+        <f t="shared" si="20"/>
         <v>44889</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="D97" s="1">
         <v>193.0</v>
       </c>
-      <c r="E97" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F97" s="8">
-        <v>1300.0</v>
+      <c r="E97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7">
-        <f t="shared" ref="A98:A101" si="22">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A98" s="5">
+        <f t="shared" ref="A98:A101" si="21">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44890</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="D98" s="1">
         <v>149.0</v>
       </c>
-      <c r="E98" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F98" s="8">
-        <v>740.0</v>
+      <c r="E98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7">
-        <f t="shared" si="22"/>
+      <c r="A99" s="5">
+        <f t="shared" si="21"/>
         <v>44890</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="D99" s="1">
         <v>129.0</v>
       </c>
-      <c r="E99" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F99" s="8">
-        <v>2860.0</v>
+      <c r="E99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7">
-        <f t="shared" si="22"/>
+      <c r="A100" s="5">
+        <f t="shared" si="21"/>
         <v>44890</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D100" s="1">
         <v>104.0</v>
       </c>
-      <c r="E100" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F100" s="8">
-        <v>50.0</v>
+      <c r="E100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7">
-        <f t="shared" si="22"/>
+      <c r="A101" s="5">
+        <f t="shared" si="21"/>
         <v>44890</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="D101" s="1">
         <v>240.0</v>
       </c>
-      <c r="E101" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F101" s="8">
-        <v>2120.0</v>
+      <c r="E101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7">
-        <f t="shared" ref="A102:A105" si="23">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A102" s="5">
+        <f t="shared" ref="A102:A105" si="22">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44891</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="D102" s="1">
         <v>99.0</v>
       </c>
-      <c r="E102" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F102" s="8">
-        <v>860.0</v>
+      <c r="E102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7">
-        <f t="shared" si="23"/>
+      <c r="A103" s="5">
+        <f t="shared" si="22"/>
         <v>44891</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="D103" s="1">
         <v>195.0</v>
       </c>
-      <c r="E103" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F103" s="8">
-        <v>3530.0</v>
+      <c r="E103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7">
-        <f t="shared" si="23"/>
+      <c r="A104" s="5">
+        <f t="shared" si="22"/>
         <v>44891</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D104" s="1">
         <v>88.0</v>
       </c>
-      <c r="E104" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F104" s="8">
-        <v>25.0</v>
+      <c r="E104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7">
-        <f t="shared" si="23"/>
+      <c r="A105" s="5">
+        <f t="shared" si="22"/>
         <v>44891</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="D105" s="1">
         <v>131.0</v>
       </c>
-      <c r="E105" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F105" s="8">
-        <v>940.0</v>
+      <c r="E105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7">
-        <f t="shared" ref="A106:A109" si="24">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A106" s="5">
+        <f t="shared" ref="A106:A109" si="23">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44892</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D106" s="1">
         <v>86.0</v>
       </c>
-      <c r="E106" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F106" s="8">
-        <v>320.0</v>
+      <c r="E106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="7">
-        <f t="shared" si="24"/>
+      <c r="A107" s="5">
+        <f t="shared" si="23"/>
         <v>44892</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C107" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="D107" s="1">
         <v>138.0</v>
       </c>
-      <c r="E107" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F107" s="8">
-        <v>1840.0</v>
+      <c r="E107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="7">
-        <f t="shared" si="24"/>
+      <c r="A108" s="5">
+        <f t="shared" si="23"/>
         <v>44892</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C108" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D108" s="1">
         <v>138.0</v>
       </c>
-      <c r="E108" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F108" s="8">
-        <v>120.0</v>
+      <c r="E108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7">
-        <f t="shared" si="24"/>
+      <c r="A109" s="5">
+        <f t="shared" si="23"/>
         <v>44892</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C109" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="D109" s="1">
         <v>248.0</v>
       </c>
-      <c r="E109" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F109" s="8">
-        <v>3830.0</v>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7">
-        <f t="shared" ref="A110:A113" si="25">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A110" s="5">
+        <f t="shared" ref="A110:A113" si="24">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44893</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="D110" s="1">
         <v>163.0</v>
       </c>
-      <c r="E110" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F110" s="8">
-        <v>720.0</v>
+      <c r="E110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7">
-        <f t="shared" si="25"/>
+      <c r="A111" s="5">
+        <f t="shared" si="24"/>
         <v>44893</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C111" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="D111" s="1">
         <v>199.0</v>
       </c>
-      <c r="E111" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F111" s="8">
-        <v>4310.0</v>
+      <c r="E111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="7">
-        <f t="shared" si="25"/>
+      <c r="A112" s="5">
+        <f t="shared" si="24"/>
         <v>44893</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C112" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D112" s="1">
         <v>150.0</v>
       </c>
-      <c r="E112" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F112" s="8">
-        <v>75.0</v>
+      <c r="E112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="7">
-        <f t="shared" si="25"/>
+      <c r="A113" s="5">
+        <f t="shared" si="24"/>
         <v>44893</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C113" s="4">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="D113" s="1">
         <v>249.0</v>
       </c>
-      <c r="E113" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F113" s="8">
-        <v>2540.0</v>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="7">
-        <f t="shared" ref="A114:A117" si="26">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A114" s="5">
+        <f t="shared" ref="A114:A117" si="25">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44894</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="D114" s="1">
         <v>130.0</v>
       </c>
-      <c r="E114" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F114" s="8">
-        <v>654.0</v>
+      <c r="E114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="7">
-        <f t="shared" si="26"/>
+      <c r="A115" s="5">
+        <f t="shared" si="25"/>
         <v>44894</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C115" s="4">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="D115" s="1">
         <v>255.0</v>
       </c>
-      <c r="E115" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F115" s="8">
-        <v>4890.0</v>
+      <c r="E115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="7">
-        <f t="shared" si="26"/>
+      <c r="A116" s="5">
+        <f t="shared" si="25"/>
         <v>44894</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C116" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D116" s="1">
         <v>144.0</v>
       </c>
-      <c r="E116" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F116" s="8">
+      <c r="E116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H116" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="7">
-        <f t="shared" si="26"/>
+      <c r="A117" s="5">
+        <f t="shared" si="25"/>
         <v>44894</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C117" s="4">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="D117" s="1">
         <v>151.0</v>
       </c>
-      <c r="E117" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F117" s="8">
-        <v>2490.0</v>
+      <c r="E117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="7">
-        <f t="shared" ref="A118:A121" si="27">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+      <c r="A118" s="5">
+        <f t="shared" ref="A118:A121" si="26">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44895</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" s="4">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="D118" s="1">
         <v>173.0</v>
       </c>
-      <c r="E118" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="F118" s="8">
-        <v>1440.0</v>
+      <c r="E118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="7">
-        <f t="shared" si="27"/>
+      <c r="A119" s="5">
+        <f t="shared" si="26"/>
         <v>44895</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C119" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="D119" s="1">
         <v>215.0</v>
       </c>
-      <c r="E119" s="5">
-        <v>60.0</v>
-      </c>
-      <c r="F119" s="8">
-        <v>4340.0</v>
+      <c r="E119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="7">
-        <f t="shared" si="27"/>
+      <c r="A120" s="5">
+        <f t="shared" si="26"/>
         <v>44895</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C120" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D120" s="1">
         <v>174.0</v>
       </c>
-      <c r="E120" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="F120" s="8">
-        <v>220.0</v>
+      <c r="E120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="7">
-        <f t="shared" si="27"/>
+      <c r="A121" s="5">
+        <f t="shared" si="26"/>
         <v>44895</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C121" s="4">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="D121" s="1">
         <v>319.0</v>
       </c>
-      <c r="E121" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="F121" s="8">
-        <v>8000.0</v>
+      <c r="E121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="E122" s="5"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123">
-      <c r="E123" s="5"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124">
-      <c r="E124" s="5"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125">
-      <c r="E125" s="5"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126">
-      <c r="E126" s="5"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127">
-      <c r="E127" s="5"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128">
-      <c r="E128" s="5"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129">
-      <c r="E129" s="5"/>
+      <c r="E129" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/excel_files/FormattedNov2022.xlsx
+++ b/data/excel_files/FormattedNov2022.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\ml-project\data\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -55,27 +63,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
@@ -85,50 +96,53 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -318,20 +332,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -357,33 +374,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44866.0</v>
+        <v>44866</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44866</v>
@@ -392,25 +409,25 @@
         <v>10</v>
       </c>
       <c r="C3" s="4">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44866</v>
@@ -419,25 +436,25 @@
         <v>11</v>
       </c>
       <c r="C4" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44866</v>
@@ -446,25 +463,25 @@
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
@@ -473,25 +490,25 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
@@ -500,25 +517,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
@@ -527,25 +544,25 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44867</v>
@@ -554,25 +571,25 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
@@ -581,25 +598,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
@@ -608,25 +625,25 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
@@ -635,25 +652,25 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44868</v>
@@ -662,25 +679,25 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
@@ -689,25 +706,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
@@ -716,25 +733,25 @@
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
@@ -743,25 +760,25 @@
         <v>11</v>
       </c>
       <c r="C16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44869</v>
@@ -770,2845 +787,2845 @@
         <v>12</v>
       </c>
       <c r="C17" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" ref="A18:A21" si="1">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A18:A21" si="0">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44870</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44870</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44870</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44870</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" ref="A22:A25" si="2">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A22:A25" si="1">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44871</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44871</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44871</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44871</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" ref="A26:A29" si="3">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A26:A29" si="2">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44872</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44872</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44872</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44872</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <f t="shared" ref="A30:A33" si="4">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A30:A33" si="3">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44873</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44873</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44873</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44873</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f t="shared" ref="A34:A37" si="5">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A34:A37" si="4">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44874</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44874</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44874</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44874</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <f t="shared" ref="A38:A41" si="6">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A38:A41" si="5">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44875</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44875</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="4">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44875</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44875</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <f t="shared" ref="A42:A45" si="7">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A42:A45" si="6">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44876</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44876</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44876</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44876</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D45" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <f t="shared" ref="A46:A49" si="8">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A46:A49" si="7">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44877</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44877</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D47" s="1">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44877</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44877</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <f t="shared" ref="A50:A53" si="9">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A50:A53" si="8">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44878</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>44878</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>44878</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>44878</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D53" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <f t="shared" ref="A54:A57" si="10">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A54:A57" si="9">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44879</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44879</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D55" s="1">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44879</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44879</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <f t="shared" ref="A58:A61" si="11">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A58:A61" si="10">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44880</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44880</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="4">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D59" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44880</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44880</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D61" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <f t="shared" ref="A62:A65" si="12">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A62:A65" si="11">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44881</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D62" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>44881</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D63" s="1">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>44881</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>44881</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D65" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <f t="shared" ref="A66:A69" si="13">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A66:A69" si="12">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44882</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44882</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D67" s="1">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44882</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44882</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <f t="shared" ref="A70:A73" si="14">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A70:A73" si="13">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44883</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>44883</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="D71" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>44883</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>44883</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <f t="shared" ref="A74:A77" si="15">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A74:A77" si="14">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44884</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>44884</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D75" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>44884</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>44884</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <f t="shared" ref="A78:A81" si="16">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A78:A81" si="15">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44885</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>44885</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D79" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>44885</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D80" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>44885</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D81" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <f t="shared" ref="A82:A85" si="17">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A82:A85" si="16">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44886</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D82" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44886</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="D83" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44886</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D84" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44886</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D85" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <f t="shared" ref="A86:A89" si="18">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A86:A89" si="17">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44887</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>44887</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D87" s="1">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>44887</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D88" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>44887</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D89" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <f t="shared" ref="A90:A93" si="19">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A90:A93" si="18">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44888</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D90" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G90" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>44888</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D91" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G91" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>44888</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D92" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>44888</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="4">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D93" s="1">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G93" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <f t="shared" ref="A94:A97" si="20">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A94:A97" si="19">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44889</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D94" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F94" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>44889</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D95" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G95" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>44889</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G96" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>44889</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D97" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G97" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <f t="shared" ref="A98:A101" si="21">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A98:A101" si="20">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44890</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D98" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G98" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>44890</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="D99" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G99" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>44890</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H100" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>44890</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D101" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G101" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <f t="shared" ref="A102:A105" si="22">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A102:A105" si="21">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44891</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D102" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G102" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>44891</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="D103" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F103" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G103" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>44891</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G104" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>44891</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F105" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G105" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <f t="shared" ref="A106:A109" si="23">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A106:A109" si="22">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44892</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G106" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44892</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D107" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F107" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G107" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44892</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G108" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44892</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D109" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F109" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G109" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <f t="shared" ref="A110:A113" si="24">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A110:A113" si="23">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44893</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D110" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G110" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H110" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44893</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D111" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F111" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G111" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44893</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D112" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F112" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44893</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D113" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G113" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H113" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <f t="shared" ref="A114:A117" si="25">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A114:A117" si="24">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44894</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F114" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G114" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H114" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44894</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D115" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G115" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44894</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D116" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44894</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D117" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F117" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <f t="shared" ref="A118:A121" si="26">A2 + (INT((ROW()-ROW($B$2))/4))</f>
+        <f t="shared" ref="A118:A121" si="25">A2 + (INT((ROW()-ROW($B$2))/4))</f>
         <v>44895</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D118" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44895</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D119" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G119" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44895</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D120" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G120" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44895</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="4">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="D121" s="1">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G121" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E122" s="7"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E123" s="7"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E124" s="7"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E127" s="7"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>